--- a/Excel_read.xlsx
+++ b/Excel_read.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,95 +421,118 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Telephone</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arthur</t>
+          <t>Person 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0951803237</t>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Person 3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>654321</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">John </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Telephone</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>123123</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>Arthur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0951803237</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>456456</t>
+          <t>654321</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dutch</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0508958010</t>
-        </is>
-      </c>
+          <t xml:space="preserve">John </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>456456</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dutch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0508958010</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>789789</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Javier</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
